--- a/rekap pembukuan pajak 2023/NPWP.xlsx
+++ b/rekap pembukuan pajak 2023/NPWP.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="PRINT" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$24</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="249">
   <si>
     <t>HARNOYO</t>
   </si>
@@ -761,6 +762,21 @@
   </si>
   <si>
     <t>JL. ALUN ALUN UTARA 2 MAGELANG, MAGELANG TENGAH, KOTA MAGELANG, JAWA TENGAH 56133</t>
+  </si>
+  <si>
+    <t>SUKSES</t>
+  </si>
+  <si>
+    <t>WONG KWO JONG</t>
+  </si>
+  <si>
+    <t>06.261.223.9-505.000</t>
+  </si>
+  <si>
+    <t>JL. JEND. SUDIRMAN NO. 162 RT.001 RW.003 KALICACING SIDOMUKTI SALATIGA JAWA TENGAH</t>
+  </si>
+  <si>
+    <t>NO WHATSAPP</t>
   </si>
 </sst>
 </file>
@@ -871,7 +887,7 @@
       <name val="Egg Roll Punch"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -887,12 +903,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,7 +1091,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1378,27 +1388,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1414,75 +1403,128 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1526,22 +1568,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1825,10 +1879,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1861,10 +1916,10 @@
       <c r="E1" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="138" t="s">
+      <c r="F1" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="139"/>
+      <c r="G1" s="151"/>
       <c r="H1" s="21" t="s">
         <v>27</v>
       </c>
@@ -2333,29 +2388,29 @@
       <c r="V15" s="38"/>
     </row>
     <row r="16" spans="1:22" ht="16.5" thickBot="1">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="103" t="s">
+      <c r="C16" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="E16" s="104"/>
-      <c r="F16" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="103" t="s">
+      <c r="E16" s="137"/>
+      <c r="F16" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="H16" s="103" t="s">
+      <c r="H16" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="I16" s="106" t="s">
+      <c r="I16" s="16" t="s">
         <v>122</v>
       </c>
       <c r="M16" s="35"/>
@@ -2426,19 +2481,19 @@
       </c>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="146" t="s">
+      <c r="A19" s="158" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="146" t="s">
+      <c r="B19" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="148" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="160" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="E19" s="140" t="s">
+      <c r="E19" s="152" t="s">
         <v>167</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -2450,18 +2505,18 @@
       <c r="H19" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="I19" s="136" t="s">
+      <c r="I19" s="148" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="147"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="4" t="s">
+      <c r="A20" s="159"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="141"/>
+      <c r="E20" s="153"/>
       <c r="F20" s="5" t="s">
         <v>42</v>
       </c>
@@ -2471,7 +2526,7 @@
       <c r="H20" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I20" s="137"/>
+      <c r="I20" s="149"/>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="68" t="s">
@@ -2624,7 +2679,7 @@
       <c r="C26" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="D26" s="76" t="s">
+      <c r="D26" s="64" t="s">
         <v>188</v>
       </c>
       <c r="E26" s="65" t="s">
@@ -2703,7 +2758,7 @@
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
       <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
+      <c r="D29" s="138"/>
       <c r="E29" s="51"/>
       <c r="F29" s="82"/>
       <c r="G29" s="81"/>
@@ -2786,7 +2841,7 @@
       <c r="C32" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="32" t="s">
         <v>96</v>
       </c>
       <c r="E32" s="86"/>
@@ -2844,7 +2899,7 @@
       <c r="C34" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="32" t="s">
         <v>39</v>
       </c>
       <c r="E34" s="86"/>
@@ -2868,16 +2923,16 @@
       <c r="V34" s="38"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="142" t="s">
+      <c r="A35" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="142" t="s">
+      <c r="B35" s="154" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="144" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="90" t="s">
+      <c r="C35" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="162" t="s">
         <v>61</v>
       </c>
       <c r="E35" s="92"/>
@@ -2893,10 +2948,10 @@
       <c r="I35" s="17"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="143"/>
-      <c r="B36" s="143"/>
-      <c r="C36" s="145"/>
-      <c r="D36" s="89"/>
+      <c r="A36" s="155"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="163"/>
       <c r="E36" s="88"/>
       <c r="F36" s="94" t="s">
         <v>41</v>
@@ -2919,7 +2974,7 @@
       <c r="C37" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="32" t="s">
         <v>68</v>
       </c>
       <c r="E37" s="86"/>
@@ -2944,7 +2999,7 @@
       <c r="C38" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="32" t="s">
         <v>72</v>
       </c>
       <c r="E38" s="86"/>
@@ -2969,7 +3024,7 @@
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="32" t="s">
         <v>77</v>
       </c>
       <c r="E39" s="86"/>
@@ -2994,7 +3049,7 @@
       <c r="C40" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="32" t="s">
         <v>82</v>
       </c>
       <c r="E40" s="86"/>
@@ -3019,7 +3074,7 @@
       <c r="C41" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="32" t="s">
         <v>87</v>
       </c>
       <c r="E41" s="86"/>
@@ -3044,7 +3099,7 @@
       <c r="C42" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="90" t="s">
+      <c r="D42" s="69" t="s">
         <v>92</v>
       </c>
       <c r="E42" s="92"/>
@@ -3069,7 +3124,7 @@
       <c r="C43" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="90" t="s">
+      <c r="D43" s="69" t="s">
         <v>101</v>
       </c>
       <c r="E43" s="92"/>
@@ -3094,7 +3149,7 @@
       <c r="C44" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="32" t="s">
         <v>106</v>
       </c>
       <c r="E44" s="86"/>
@@ -3119,7 +3174,7 @@
       <c r="C45" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="32" t="s">
         <v>109</v>
       </c>
       <c r="E45" s="86"/>
@@ -3144,7 +3199,7 @@
       <c r="C46" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="32" t="s">
         <v>115</v>
       </c>
       <c r="E46" s="86"/>
@@ -3169,7 +3224,7 @@
       <c r="C47" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="32" t="s">
         <v>119</v>
       </c>
       <c r="E47" s="86"/>
@@ -3194,7 +3249,7 @@
       <c r="C48" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="90" t="s">
+      <c r="D48" s="69" t="s">
         <v>49</v>
       </c>
       <c r="E48" s="92"/>
@@ -3219,7 +3274,7 @@
       <c r="C49" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="D49" s="90" t="s">
+      <c r="D49" s="69" t="s">
         <v>191</v>
       </c>
       <c r="E49" s="92"/>
@@ -3244,7 +3299,7 @@
       <c r="C50" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="32" t="s">
         <v>228</v>
       </c>
       <c r="E50" s="86"/>
@@ -3260,12 +3315,36 @@
       <c r="I50" s="13"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="85" t="s">
+        <v>244</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="E51" s="86"/>
+      <c r="F51" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>247</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A10:I15">
     <sortCondition ref="A10"/>
   </sortState>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="E19:E20"/>
@@ -3275,6 +3354,7 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D35:D36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E18" r:id="rId1"/>
@@ -3307,7 +3387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
@@ -3322,19 +3402,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="106" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3342,7 +3422,7 @@
       <c r="A2" s="99">
         <v>1</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="100" t="s">
         <v>231</v>
       </c>
       <c r="C2" s="26" t="s">
@@ -3356,19 +3436,19 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="114">
+      <c r="A3" s="107">
         <v>2</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="108" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="116" t="s">
+      <c r="D3" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="109" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3376,10 +3456,10 @@
       <c r="A4" s="96">
         <v>3</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="102" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="34" t="s">
@@ -3390,19 +3470,19 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="114">
-        <v>4</v>
-      </c>
-      <c r="B5" s="118" t="s">
+      <c r="A5" s="107">
+        <v>4</v>
+      </c>
+      <c r="B5" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="120" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="116" t="s">
+      <c r="D5" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="109" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3410,10 +3490,10 @@
       <c r="A6" s="97">
         <v>5</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="103" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="70" t="s">
@@ -3424,17 +3504,17 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="122">
+      <c r="A7" s="115">
         <v>6</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="116" t="s">
+      <c r="B7" s="116"/>
+      <c r="C7" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="116" t="s">
+      <c r="D7" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="109" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3442,7 +3522,7 @@
       <c r="A8" s="98">
         <v>7</v>
       </c>
-      <c r="B8" s="121"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="32" t="s">
         <v>132</v>
       </c>
@@ -3454,19 +3534,19 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="124">
+      <c r="A9" s="117">
         <v>8</v>
       </c>
-      <c r="B9" s="125" t="s">
+      <c r="B9" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="109" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="116" t="s">
+      <c r="D9" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="109" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3474,7 +3554,7 @@
       <c r="A10" s="98">
         <v>9</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="32" t="s">
         <v>210</v>
       </c>
@@ -3486,17 +3566,17 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="126">
+      <c r="A11" s="119">
         <v>10</v>
       </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="116" t="s">
+      <c r="B11" s="120"/>
+      <c r="C11" s="109" t="s">
         <v>195</v>
       </c>
-      <c r="D11" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="116" t="s">
+      <c r="D11" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="109" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3504,7 +3584,7 @@
       <c r="A12" s="99">
         <v>11</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="101" t="s">
         <v>136</v>
       </c>
       <c r="C12" s="32" t="s">
@@ -3518,19 +3598,19 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="126">
+      <c r="A13" s="119">
         <v>12</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="125" t="s">
+      <c r="D13" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="118" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3538,7 +3618,7 @@
       <c r="A14" s="99">
         <v>13</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="101" t="s">
         <v>171</v>
       </c>
       <c r="C14" s="32" t="s">
@@ -3552,27 +3632,27 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="126">
+      <c r="A15" s="119">
         <v>14</v>
       </c>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="108" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="116" t="s">
+      <c r="C15" s="109" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="116" t="s">
+      <c r="D15" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="109" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" thickBot="1">
-      <c r="A16" s="150">
+      <c r="A16" s="129">
         <v>15</v>
       </c>
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="104" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -3586,19 +3666,19 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" thickTop="1">
-      <c r="A17" s="152">
+      <c r="A17" s="131">
         <v>16</v>
       </c>
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="131" t="s">
+      <c r="C17" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="132" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="131" t="s">
+      <c r="D17" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="124" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3606,10 +3686,10 @@
       <c r="A18" s="99">
         <v>17</v>
       </c>
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="102" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -3620,19 +3700,19 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="126">
+      <c r="A19" s="119">
         <v>18</v>
       </c>
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="126" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="134" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="133" t="s">
+      <c r="D19" s="127" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="126" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3640,10 +3720,10 @@
       <c r="A20" s="99">
         <v>19</v>
       </c>
-      <c r="B20" s="109" t="s">
+      <c r="B20" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="109" t="s">
+      <c r="C20" s="102" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -3654,19 +3734,19 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="126">
+      <c r="A21" s="119">
         <v>20</v>
       </c>
-      <c r="B21" s="135" t="s">
+      <c r="B21" s="128" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C21" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="120" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="119" t="s">
+      <c r="D21" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="112" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3674,10 +3754,10 @@
       <c r="A22" s="99">
         <v>21</v>
       </c>
-      <c r="B22" s="109" t="s">
+      <c r="B22" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="102" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="34" t="s">
@@ -3688,30 +3768,30 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="114">
+      <c r="A23" s="107">
         <v>22</v>
       </c>
-      <c r="B23" s="135" t="s">
+      <c r="B23" s="128" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="135" t="s">
+      <c r="C23" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="120" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="119" t="s">
+      <c r="D23" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="112" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" thickBot="1">
-      <c r="A24" s="150">
+      <c r="A24" s="129">
         <v>23</v>
       </c>
-      <c r="B24" s="151" t="s">
+      <c r="B24" s="130" t="s">
         <v>240</v>
       </c>
-      <c r="C24" s="151" t="s">
+      <c r="C24" s="130" t="s">
         <v>81</v>
       </c>
       <c r="D24" s="60" t="s">
@@ -3722,19 +3802,19 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" thickTop="1">
-      <c r="A25" s="152">
+      <c r="A25" s="131">
         <v>24</v>
       </c>
-      <c r="B25" s="153" t="s">
+      <c r="B25" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="154" t="s">
+      <c r="C25" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="155" t="s">
+      <c r="D25" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="E25" s="154" t="s">
+      <c r="E25" s="133" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3742,7 +3822,7 @@
       <c r="A26" s="96">
         <v>25</v>
       </c>
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="101" t="s">
         <v>168</v>
       </c>
       <c r="C26" s="32" t="s">
@@ -3756,36 +3836,36 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="114">
+      <c r="A27" s="107">
         <v>26</v>
       </c>
-      <c r="B27" s="115" t="s">
+      <c r="B27" s="108" t="s">
         <v>236</v>
       </c>
-      <c r="C27" s="116" t="s">
+      <c r="C27" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="117" t="s">
+      <c r="D27" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="E27" s="116" t="s">
+      <c r="E27" s="109" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" thickBot="1">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="B29" s="113" t="s">
+      <c r="B29" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="113" t="s">
+      <c r="C29" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="113" t="s">
+      <c r="D29" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="113" t="s">
+      <c r="E29" s="106" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3793,7 +3873,7 @@
       <c r="A30" s="99">
         <v>1</v>
       </c>
-      <c r="B30" s="107" t="s">
+      <c r="B30" s="100" t="s">
         <v>231</v>
       </c>
       <c r="C30" s="26" t="s">
@@ -3807,19 +3887,19 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="114">
+      <c r="A31" s="107">
         <v>2</v>
       </c>
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="108" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="116" t="s">
+      <c r="C31" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="116" t="s">
+      <c r="D31" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="109" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3827,10 +3907,10 @@
       <c r="A32" s="96">
         <v>3</v>
       </c>
-      <c r="B32" s="109" t="s">
+      <c r="B32" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="109" t="s">
+      <c r="C32" s="102" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="34" t="s">
@@ -3841,19 +3921,19 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="114">
-        <v>4</v>
-      </c>
-      <c r="B33" s="118" t="s">
+      <c r="A33" s="107">
+        <v>4</v>
+      </c>
+      <c r="B33" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="119" t="s">
+      <c r="C33" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="120" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="116" t="s">
+      <c r="D33" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="109" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3861,10 +3941,10 @@
       <c r="A34" s="97">
         <v>5</v>
       </c>
-      <c r="B34" s="109" t="s">
+      <c r="B34" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="110" t="s">
+      <c r="C34" s="103" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="70" t="s">
@@ -3875,17 +3955,17 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="122">
+      <c r="A35" s="115">
         <v>6</v>
       </c>
-      <c r="B35" s="123"/>
-      <c r="C35" s="116" t="s">
+      <c r="B35" s="116"/>
+      <c r="C35" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="116" t="s">
+      <c r="D35" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="109" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3893,7 +3973,7 @@
       <c r="A36" s="98">
         <v>7</v>
       </c>
-      <c r="B36" s="121"/>
+      <c r="B36" s="114"/>
       <c r="C36" s="32" t="s">
         <v>132</v>
       </c>
@@ -3905,19 +3985,19 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="124">
+      <c r="A37" s="117">
         <v>8</v>
       </c>
-      <c r="B37" s="125" t="s">
+      <c r="B37" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="116" t="s">
+      <c r="C37" s="109" t="s">
         <v>205</v>
       </c>
-      <c r="D37" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="116" t="s">
+      <c r="D37" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="109" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3925,7 +4005,7 @@
       <c r="A38" s="98">
         <v>9</v>
       </c>
-      <c r="B38" s="121"/>
+      <c r="B38" s="114"/>
       <c r="C38" s="32" t="s">
         <v>210</v>
       </c>
@@ -3937,17 +4017,17 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="126">
+      <c r="A39" s="119">
         <v>10</v>
       </c>
-      <c r="B39" s="127"/>
-      <c r="C39" s="116" t="s">
+      <c r="B39" s="120"/>
+      <c r="C39" s="109" t="s">
         <v>195</v>
       </c>
-      <c r="D39" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="116" t="s">
+      <c r="D39" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="109" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3955,7 +4035,7 @@
       <c r="A40" s="99">
         <v>11</v>
       </c>
-      <c r="B40" s="108" t="s">
+      <c r="B40" s="101" t="s">
         <v>136</v>
       </c>
       <c r="C40" s="32" t="s">
@@ -3969,19 +4049,19 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="126">
+      <c r="A41" s="119">
         <v>12</v>
       </c>
-      <c r="B41" s="128" t="s">
+      <c r="B41" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="C41" s="125" t="s">
+      <c r="C41" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D41" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="125" t="s">
+      <c r="D41" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="118" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3989,7 +4069,7 @@
       <c r="A42" s="99">
         <v>13</v>
       </c>
-      <c r="B42" s="108" t="s">
+      <c r="B42" s="101" t="s">
         <v>171</v>
       </c>
       <c r="C42" s="32" t="s">
@@ -4003,27 +4083,27 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="126">
+      <c r="A43" s="119">
         <v>14</v>
       </c>
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="108" t="s">
         <v>204</v>
       </c>
-      <c r="C43" s="116" t="s">
+      <c r="C43" s="109" t="s">
         <v>195</v>
       </c>
-      <c r="D43" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="116" t="s">
+      <c r="D43" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="109" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18" thickBot="1">
-      <c r="A44" s="150">
+      <c r="A44" s="129">
         <v>15</v>
       </c>
-      <c r="B44" s="111" t="s">
+      <c r="B44" s="104" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="59" t="s">
@@ -4037,19 +4117,19 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="18" thickTop="1">
-      <c r="A45" s="152">
+      <c r="A45" s="131">
         <v>16</v>
       </c>
-      <c r="B45" s="130" t="s">
+      <c r="B45" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="131" t="s">
+      <c r="C45" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="132" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="131" t="s">
+      <c r="D45" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="124" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4057,10 +4137,10 @@
       <c r="A46" s="99">
         <v>17</v>
       </c>
-      <c r="B46" s="109" t="s">
+      <c r="B46" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="109" t="s">
+      <c r="C46" s="102" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="34" t="s">
@@ -4071,19 +4151,19 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="126">
+      <c r="A47" s="119">
         <v>18</v>
       </c>
-      <c r="B47" s="133" t="s">
+      <c r="B47" s="126" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="133" t="s">
+      <c r="C47" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="134" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="133" t="s">
+      <c r="D47" s="127" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="126" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4091,10 +4171,10 @@
       <c r="A48" s="99">
         <v>19</v>
       </c>
-      <c r="B48" s="109" t="s">
+      <c r="B48" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="109" t="s">
+      <c r="C48" s="102" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="34" t="s">
@@ -4105,19 +4185,19 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="126">
+      <c r="A49" s="119">
         <v>20</v>
       </c>
-      <c r="B49" s="135" t="s">
+      <c r="B49" s="128" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="135" t="s">
+      <c r="C49" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="120" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="119" t="s">
+      <c r="D49" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="112" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4125,10 +4205,10 @@
       <c r="A50" s="99">
         <v>21</v>
       </c>
-      <c r="B50" s="109" t="s">
+      <c r="B50" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="C50" s="109" t="s">
+      <c r="C50" s="102" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="34" t="s">
@@ -4139,30 +4219,30 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="114">
+      <c r="A51" s="107">
         <v>22</v>
       </c>
-      <c r="B51" s="135" t="s">
+      <c r="B51" s="128" t="s">
         <v>220</v>
       </c>
-      <c r="C51" s="135" t="s">
+      <c r="C51" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="120" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="119" t="s">
+      <c r="D51" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="112" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18" thickBot="1">
-      <c r="A52" s="150">
+      <c r="A52" s="129">
         <v>23</v>
       </c>
-      <c r="B52" s="151" t="s">
+      <c r="B52" s="130" t="s">
         <v>240</v>
       </c>
-      <c r="C52" s="151" t="s">
+      <c r="C52" s="130" t="s">
         <v>81</v>
       </c>
       <c r="D52" s="60" t="s">
@@ -4173,19 +4253,19 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="18" thickTop="1">
-      <c r="A53" s="152">
+      <c r="A53" s="131">
         <v>24</v>
       </c>
-      <c r="B53" s="153" t="s">
+      <c r="B53" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="154" t="s">
+      <c r="C53" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="155" t="s">
+      <c r="D53" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="E53" s="154" t="s">
+      <c r="E53" s="133" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4193,7 +4273,7 @@
       <c r="A54" s="96">
         <v>25</v>
       </c>
-      <c r="B54" s="108" t="s">
+      <c r="B54" s="101" t="s">
         <v>168</v>
       </c>
       <c r="C54" s="32" t="s">
@@ -4207,19 +4287,19 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="114">
+      <c r="A55" s="107">
         <v>26</v>
       </c>
-      <c r="B55" s="115" t="s">
+      <c r="B55" s="108" t="s">
         <v>236</v>
       </c>
-      <c r="C55" s="116" t="s">
+      <c r="C55" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="D55" s="117" t="s">
+      <c r="D55" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="E55" s="116" t="s">
+      <c r="E55" s="109" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4230,4 +4310,1015 @@
   <pageMargins left="0.75" right="0.12" top="0.14000000000000001" bottom="0.15" header="0.12" footer="0.12"/>
   <pageSetup paperSize="14" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="140" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75">
+      <c r="A2" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="139"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="139"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75">
+      <c r="A4" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="139"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75">
+      <c r="A5" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="139"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="139"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7" s="165" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="144"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="A8" s="166"/>
+      <c r="B8" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="144"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75">
+      <c r="A9" s="166"/>
+      <c r="B9" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="144"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75">
+      <c r="A10" s="166"/>
+      <c r="B10" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="144"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="167"/>
+      <c r="B11" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="144"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75">
+      <c r="A12" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="139"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="A13" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="139"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75">
+      <c r="A14" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="139"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="139"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75">
+      <c r="A16" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="139"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75">
+      <c r="A17" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="139"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75">
+      <c r="A18" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="139"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75">
+      <c r="A19" s="168" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="168" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="169" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="145" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="144"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75">
+      <c r="A20" s="168"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="145" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="144"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75">
+      <c r="A21" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="139"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75">
+      <c r="A22" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="139"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75">
+      <c r="A23" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="139"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75">
+      <c r="A24" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="139"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75">
+      <c r="A25" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="139"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75">
+      <c r="A26" s="141" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="142" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="143" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="139"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75">
+      <c r="A27" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="139"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75">
+      <c r="A28" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="139"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75">
+      <c r="A29" s="101" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="139"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75">
+      <c r="A30" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="139"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75">
+      <c r="A31" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="139"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75">
+      <c r="A32" s="85" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="139"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75">
+      <c r="A33" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="139"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75">
+      <c r="A34" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="139"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75">
+      <c r="A35" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="170" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="171" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="164" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="145" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="144"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75">
+      <c r="A36" s="170"/>
+      <c r="B36" s="170"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="145" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="144"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75">
+      <c r="A37" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="139"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75">
+      <c r="A38" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="139"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75">
+      <c r="A39" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="139"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75">
+      <c r="A40" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="139"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75">
+      <c r="A41" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="139"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75">
+      <c r="A42" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="139"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75">
+      <c r="A43" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="139"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75">
+      <c r="A44" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="139"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75">
+      <c r="A45" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="139"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75">
+      <c r="A46" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="139"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75">
+      <c r="A47" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="139"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75">
+      <c r="A48" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="139"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75">
+      <c r="A49" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="139"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75">
+      <c r="A50" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="139"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="C52" s="146"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
+      <c r="G52" s="146"/>
+      <c r="H52" s="146"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="C53" s="146"/>
+      <c r="D53" s="147"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="146"/>
+      <c r="G53" s="146"/>
+      <c r="H53" s="146"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="C54" s="146"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="146"/>
+      <c r="F54" s="146"/>
+      <c r="G54" s="146"/>
+      <c r="H54" s="146"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="C55" s="146"/>
+      <c r="D55" s="147"/>
+      <c r="E55" s="146"/>
+      <c r="F55" s="146"/>
+      <c r="G55" s="146"/>
+      <c r="H55" s="146"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="C56" s="146"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="146"/>
+      <c r="F56" s="146"/>
+      <c r="G56" s="146"/>
+      <c r="H56" s="146"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="C57" s="146"/>
+      <c r="D57" s="147"/>
+      <c r="E57" s="146"/>
+      <c r="F57" s="146"/>
+      <c r="G57" s="146"/>
+      <c r="H57" s="146"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="C58" s="146"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="146"/>
+      <c r="F58" s="146"/>
+      <c r="G58" s="146"/>
+      <c r="H58" s="146"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="C59" s="146"/>
+      <c r="D59" s="147"/>
+      <c r="E59" s="146"/>
+      <c r="F59" s="146"/>
+      <c r="G59" s="146"/>
+      <c r="H59" s="146"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="C60" s="146"/>
+      <c r="D60" s="147"/>
+      <c r="E60" s="146"/>
+      <c r="F60" s="146"/>
+      <c r="G60" s="146"/>
+      <c r="H60" s="146"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="C61" s="146"/>
+      <c r="D61" s="147"/>
+      <c r="E61" s="146"/>
+      <c r="F61" s="146"/>
+      <c r="G61" s="146"/>
+      <c r="H61" s="146"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="C62" s="146"/>
+      <c r="D62" s="147"/>
+      <c r="E62" s="146"/>
+      <c r="F62" s="146"/>
+      <c r="G62" s="146"/>
+      <c r="H62" s="146"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="C63" s="146"/>
+      <c r="D63" s="147"/>
+      <c r="E63" s="146"/>
+      <c r="F63" s="146"/>
+      <c r="G63" s="146"/>
+      <c r="H63" s="146"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="D64" s="147"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+  </mergeCells>
+  <pageMargins left="0.21" right="0.12" top="0.22" bottom="0.2" header="0.12" footer="0.12"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>